--- a/rfuse/Archive/로컬_개별실험_v3/fuse_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v3/fuse_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>953</v>
+        <v>6564</v>
       </c>
       <c r="C3" s="3">
-        <v>4633</v>
+        <v>13600</v>
       </c>
       <c r="D3" s="3">
-        <v>3813</v>
+        <v>23100</v>
       </c>
       <c r="E3" s="3">
-        <v>9706</v>
+        <v>30700</v>
       </c>
       <c r="F3" s="3">
-        <v>13300</v>
+        <v>34200</v>
       </c>
       <c r="G3" s="3">
-        <v>21200</v>
+        <v>34100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>12100</v>
+        <v>3979</v>
       </c>
       <c r="C8" s="3">
-        <v>20600</v>
+        <v>7992</v>
       </c>
       <c r="D8" s="3">
-        <v>43400</v>
+        <v>16500</v>
       </c>
       <c r="E8" s="3">
-        <v>81700</v>
+        <v>31000</v>
       </c>
       <c r="F8" s="3">
-        <v>147000</v>
+        <v>199000</v>
       </c>
       <c r="G8" s="3">
-        <v>184000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7353</v>
+        <v>7876</v>
       </c>
       <c r="C13" s="3">
-        <v>12800</v>
+        <v>11800</v>
       </c>
       <c r="D13" s="3">
-        <v>16500</v>
+        <v>15300</v>
       </c>
       <c r="E13" s="3">
-        <v>3727</v>
+        <v>18300</v>
       </c>
       <c r="F13" s="3">
-        <v>3593</v>
+        <v>18300</v>
       </c>
       <c r="G13" s="3">
-        <v>3646</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>117000</v>
+        <v>113000</v>
       </c>
       <c r="C18" s="3">
-        <v>194000</v>
+        <v>199000</v>
       </c>
       <c r="D18" s="3">
-        <v>285000</v>
+        <v>286000</v>
       </c>
       <c r="E18" s="3">
-        <v>361000</v>
+        <v>358000</v>
       </c>
       <c r="F18" s="3">
-        <v>438000</v>
+        <v>403000</v>
       </c>
       <c r="G18" s="3">
-        <v>478000</v>
+        <v>452000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3346</v>
+        <v>2645</v>
       </c>
       <c r="C23" s="3">
-        <v>4242</v>
+        <v>4320</v>
       </c>
       <c r="D23" s="3">
-        <v>7447</v>
+        <v>8846</v>
       </c>
       <c r="E23" s="3">
-        <v>7634</v>
+        <v>8258</v>
       </c>
       <c r="F23" s="3">
-        <v>10900</v>
+        <v>5803</v>
       </c>
       <c r="G23" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>121000</v>
+        <v>88600</v>
       </c>
       <c r="C28" s="3">
-        <v>139000</v>
+        <v>128000</v>
       </c>
       <c r="D28" s="3">
-        <v>254000</v>
+        <v>268000</v>
       </c>
       <c r="E28" s="3">
-        <v>451000</v>
+        <v>271000</v>
       </c>
       <c r="F28" s="3">
-        <v>255000</v>
+        <v>260000</v>
       </c>
       <c r="G28" s="3">
-        <v>701000</v>
+        <v>333000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>7314</v>
+        <v>6826</v>
       </c>
       <c r="C33" s="3">
-        <v>9929</v>
+        <v>9022</v>
       </c>
       <c r="D33" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="E33" s="3">
-        <v>13200</v>
+        <v>11900</v>
       </c>
       <c r="F33" s="3">
-        <v>14400</v>
+        <v>12600</v>
       </c>
       <c r="G33" s="3">
-        <v>14800</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>116000</v>
+        <v>110000</v>
       </c>
       <c r="C38" s="3">
-        <v>197000</v>
+        <v>204000</v>
       </c>
       <c r="D38" s="3">
-        <v>261000</v>
+        <v>274000</v>
       </c>
       <c r="E38" s="3">
-        <v>327000</v>
+        <v>350000</v>
       </c>
       <c r="F38" s="3">
-        <v>419000</v>
+        <v>392000</v>
       </c>
       <c r="G38" s="3">
-        <v>457000</v>
+        <v>392000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/Archive/로컬_개별실험_v3/fuse_summary.xlsx
+++ b/rfuse/Archive/로컬_개별실험_v3/fuse_summary.xlsx
@@ -456,16 +456,16 @@
         <v>13600</v>
       </c>
       <c r="D3" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="E3" s="3">
-        <v>30700</v>
+        <v>29700</v>
       </c>
       <c r="F3" s="3">
-        <v>34200</v>
+        <v>32100</v>
       </c>
       <c r="G3" s="3">
-        <v>34100</v>
+        <v>33100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>3979</v>
+        <v>3564</v>
       </c>
       <c r="C8" s="3">
-        <v>7992</v>
+        <v>8049</v>
       </c>
       <c r="D8" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="E8" s="3">
-        <v>31000</v>
+        <v>31800</v>
       </c>
       <c r="F8" s="3">
-        <v>199000</v>
+        <v>193000</v>
       </c>
       <c r="G8" s="3">
-        <v>200000</v>
+        <v>193000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7876</v>
+        <v>9061</v>
       </c>
       <c r="C13" s="3">
-        <v>11800</v>
+        <v>12800</v>
       </c>
       <c r="D13" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="E13" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F13" s="3">
+        <v>18800</v>
+      </c>
+      <c r="G13" s="3">
         <v>18300</v>
-      </c>
-      <c r="F13" s="3">
-        <v>18300</v>
-      </c>
-      <c r="G13" s="3">
-        <v>18100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -615,19 +615,19 @@
         <v>113000</v>
       </c>
       <c r="C18" s="3">
-        <v>199000</v>
+        <v>209000</v>
       </c>
       <c r="D18" s="3">
-        <v>286000</v>
+        <v>288000</v>
       </c>
       <c r="E18" s="3">
-        <v>358000</v>
+        <v>356000</v>
       </c>
       <c r="F18" s="3">
-        <v>403000</v>
+        <v>397000</v>
       </c>
       <c r="G18" s="3">
-        <v>452000</v>
+        <v>461000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2645</v>
+        <v>2925</v>
       </c>
       <c r="C23" s="3">
-        <v>4320</v>
+        <v>4104</v>
       </c>
       <c r="D23" s="3">
-        <v>8846</v>
+        <v>8569</v>
       </c>
       <c r="E23" s="3">
-        <v>8258</v>
+        <v>8742</v>
       </c>
       <c r="F23" s="3">
-        <v>5803</v>
+        <v>8003</v>
       </c>
       <c r="G23" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>88600</v>
+        <v>94400</v>
       </c>
       <c r="C28" s="3">
-        <v>128000</v>
+        <v>135000</v>
       </c>
       <c r="D28" s="3">
-        <v>268000</v>
+        <v>284000</v>
       </c>
       <c r="E28" s="3">
-        <v>271000</v>
+        <v>281000</v>
       </c>
       <c r="F28" s="3">
-        <v>260000</v>
+        <v>266000</v>
       </c>
       <c r="G28" s="3">
-        <v>333000</v>
+        <v>293000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>6826</v>
+        <v>6243</v>
       </c>
       <c r="C33" s="3">
-        <v>9022</v>
+        <v>9266</v>
       </c>
       <c r="D33" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="E33" s="3">
         <v>11900</v>
       </c>
       <c r="F33" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="G33" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>110000</v>
+        <v>113000</v>
       </c>
       <c r="C38" s="3">
-        <v>204000</v>
+        <v>179000</v>
       </c>
       <c r="D38" s="3">
-        <v>274000</v>
+        <v>275000</v>
       </c>
       <c r="E38" s="3">
         <v>350000</v>
       </c>
       <c r="F38" s="3">
-        <v>392000</v>
+        <v>395000</v>
       </c>
       <c r="G38" s="3">
-        <v>392000</v>
+        <v>402000</v>
       </c>
     </row>
   </sheetData>
